--- a/data/trans_dic/P26_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P26_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:W18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +533,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha aumentado el consumo de medicación respecto al último mes</t>
+          <t>Población que ha aumentado el consumo de medicación respecto al último mes (tasa de respuesta: 99,91%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +557,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -594,57 +607,87 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -666,6 +709,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -680,77 +729,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>16,49%</t>
+          <t>1,09%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,34%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>10,85%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>26,51%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>10,16%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>14,67%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>12,79%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>22,87%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>20,88%</t>
+          <t>3,15%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>30,35%</t>
+          <t>5,71%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>15,35%</t>
+          <t>6,66%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>10,64%</t>
+          <t>6,44%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>18,2%</t>
+          <t>11,28%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>23,03%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>23,1%</t>
+          <t>1,42%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>2,53%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>3,65%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>5,16%</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>4,2%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>6,3%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>4,1%</t>
         </is>
       </c>
     </row>
@@ -763,77 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 45,85</t>
+          <t>0,0; 3,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,53; 21,26</t>
+          <t>0,57; 5,24</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,04; 27,93</t>
+          <t>0,48; 4,48</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,55; 56,67</t>
+          <t>0,98; 8,63</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 30,28</t>
+          <t>0,0; 7,74</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 44,32</t>
+          <t>0,0; 6,42</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,63; 30,33</t>
+          <t>0,87; 8,68</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>12,52; 36,27</t>
+          <t>0,0; 6,4</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>11,58; 34,12</t>
+          <t>0,68; 7,9</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>15,47; 47,36</t>
+          <t>2,81; 10,35</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3,34; 35,21</t>
+          <t>3,5; 11,48</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,81; 20,82</t>
+          <t>3,38; 11,88</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>10,74; 29,67</t>
+          <t>6,02; 18,9</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>14,39; 37,22</t>
+          <t>2,3; 10,4</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>12,46; 36,39</t>
+          <t>0,54; 3,74</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>0,99; 4,93</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>2,07; 6,39</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>3,14; 8,18</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>2,33; 7,0</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>3,3; 10,57</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>2,19; 7,74</t>
         </is>
       </c>
     </row>
@@ -850,77 +959,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,69%</t>
+          <t>1,15%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>10,1%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>24,81%</t>
+          <t>6,18%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>9,62%</t>
+          <t>10,49%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>20,82%</t>
+          <t>1,96%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>11,5%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>19,14%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>22,3%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>20,56%</t>
+          <t>5,89%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>11,54%</t>
+          <t>8,15%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>8,5%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>15,36%</t>
+          <t>7,75%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>23,37%</t>
+          <t>10,3%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>16,58%</t>
+          <t>1,41%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>2,48%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>3,89%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>7,09%</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>8,08%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>4,77%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>6,87%</t>
         </is>
       </c>
     </row>
@@ -933,77 +1072,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,0</t>
+          <t>0,0; 2,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,68</t>
+          <t>0,0; 4,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,56; 24,22</t>
+          <t>0,53; 4,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>14,25; 38,92</t>
+          <t>3,36; 10,74</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 29,81</t>
+          <t>0,75; 36,28</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,12; 42,27</t>
+          <t>0,0; 6,33</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,54; 22,45</t>
+          <t>1,0; 8,75</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,51; 29,79</t>
+          <t>0,9; 5,31</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>14,07; 31,88</t>
+          <t>1,66; 8,4</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>11,77; 32,68</t>
+          <t>3,46; 9,81</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,16; 22,84</t>
+          <t>5,02; 12,38</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,95; 15,93</t>
+          <t>2,69; 9,36</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>9,46; 22,83</t>
+          <t>4,36; 12,58</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>16,55; 31,88</t>
+          <t>5,88; 16,27</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>9,66; 26,58</t>
+          <t>0,51; 2,91</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>1,06; 5,03</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>2,38; 5,92</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>4,92; 9,71</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>2,66; 21,97</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>2,88; 7,91</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>4,09; 10,39</t>
         </is>
       </c>
     </row>
@@ -1020,77 +1189,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>12,24%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>13,29%</t>
+          <t>4,52%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,59%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>18,02%</t>
+          <t>5,08%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>24,73%</t>
+          <t>4,41%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>14,51%</t>
+          <t>6,28%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>13,84%</t>
+          <t>5,97%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>21,07%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>27,16%</t>
+          <t>5,62%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>22,64%</t>
+          <t>8,43%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>13,59%</t>
+          <t>11,22%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>13,6%</t>
+          <t>8,78%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>16,27%</t>
+          <t>9,69%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>23,57%</t>
+          <t>10,91%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>23,47%</t>
+          <t>2,32%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>5,08%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>5,43%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>8,22%</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>6,66%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>7,89%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>8,33%</t>
         </is>
       </c>
     </row>
@@ -1103,77 +1302,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,51; 24,66</t>
+          <t>0,64; 3,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,53; 22,92</t>
+          <t>2,51; 7,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,78; 16,9</t>
+          <t>0,98; 4,6</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,62; 28,88</t>
+          <t>3,05; 8,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>14,38; 38,27</t>
+          <t>2,32; 7,86</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,23; 24,58</t>
+          <t>3,4; 10,69</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,43; 20,66</t>
+          <t>3,29; 10,71</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>15,48; 28,42</t>
+          <t>1,55; 5,07</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>21,11; 35,32</t>
+          <t>3,3; 8,47</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>15,23; 30,53</t>
+          <t>5,76; 11,52</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>8,14; 21,04</t>
+          <t>8,44; 14,4</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>8,94; 18,66</t>
+          <t>6,15; 12,17</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>12,17; 21,35</t>
+          <t>6,43; 13,65</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>18,56; 28,83</t>
+          <t>7,31; 15,81</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>17,42; 30,49</t>
+          <t>1,33; 3,77</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>3,48; 7,15</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>3,92; 7,25</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>6,32; 10,46</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>4,88; 9,01</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>5,58; 10,75</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>5,76; 11,45</t>
         </is>
       </c>
     </row>
@@ -1190,77 +1419,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>13,5%</t>
+          <t>4,24%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,53%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>12,08%</t>
+          <t>4,57%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>20,61%</t>
+          <t>9,53%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>14,21%</t>
+          <t>6,32%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>11,12%</t>
+          <t>7,08%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>13,7%</t>
+          <t>7,53%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>22,19%</t>
+          <t>3,71%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>19,6%</t>
+          <t>7,54%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>22,44%</t>
+          <t>12,52%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>12,22%</t>
+          <t>11,85%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>9,18%</t>
+          <t>13,16%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>18,21%</t>
+          <t>13,63%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>20,03%</t>
+          <t>12,18%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>18,51%</t>
+          <t>3,96%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>4,39%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>8,64%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>10,71%</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>9,75%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>10,18%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>9,76%</t>
         </is>
       </c>
     </row>
@@ -1273,77 +1532,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,4; 33,41</t>
+          <t>1,6; 12,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,75; 6,65</t>
+          <t>0,31; 2,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,98; 19,84</t>
+          <t>2,55; 7,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>14,24; 29,57</t>
+          <t>6,45; 13,92</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,73; 22,62</t>
+          <t>3,91; 9,76</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,12; 17,58</t>
+          <t>4,07; 11,43</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,66; 19,96</t>
+          <t>4,61; 12,07</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,02; 27,65</t>
+          <t>1,98; 6,03</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>14,98; 25,48</t>
+          <t>4,82; 10,99</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>15,99; 29,81</t>
+          <t>9,52; 16,41</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,34; 22,01</t>
+          <t>8,95; 15,31</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,21; 13,36</t>
+          <t>9,72; 17,74</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>13,88; 22,61</t>
+          <t>9,68; 18,61</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>16,07; 25,18</t>
+          <t>8,07; 16,58</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>14,03; 24,16</t>
+          <t>2,25; 7,59</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>2,88; 6,41</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>6,53; 10,91</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>8,47; 13,22</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>7,56; 12,65</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>7,88; 13,91</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>7,48; 13,17</t>
         </is>
       </c>
     </row>
@@ -1360,77 +1649,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,93%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>6,41%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>11,38%</t>
+          <t>6,84%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6,84%</t>
+          <t>4,83%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>9,94%</t>
+          <t>5,88%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>7,52%</t>
+          <t>7,46%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>11,38%</t>
+          <t>14,42%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>19,03%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>12,61%</t>
+          <t>7,92%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>22,64%</t>
+          <t>13,74%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>4,56%</t>
+          <t>9,43%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>9,12%</t>
+          <t>9,93%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>15,58%</t>
+          <t>16,7%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>9,85%</t>
+          <t>10,01%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>16,52%</t>
+          <t>1,98%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>5,9%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>10,29%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>7,18%</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>7,96%</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>12,29%</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>12,17%</t>
         </is>
       </c>
     </row>
@@ -1443,77 +1762,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,5</t>
+          <t>0,0; 1,84</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,1; 12,1</t>
+          <t>1,78; 7,34</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,73; 17,11</t>
+          <t>4,08; 10,34</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,93; 11,35</t>
+          <t>2,76; 7,82</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,28; 16,59</t>
+          <t>3,22; 10,52</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,5; 13,42</t>
+          <t>4,06; 12,98</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,08; 17,36</t>
+          <t>10,14; 21,2</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>13,23; 24,69</t>
+          <t>1,7; 6,52</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>8,61; 17,88</t>
+          <t>4,93; 11,97</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>16,2; 29,22</t>
+          <t>9,99; 18,19</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2,34; 7,79</t>
+          <t>6,41; 13,26</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,15; 13,3</t>
+          <t>5,96; 15,61</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>12,19; 20,0</t>
+          <t>12,25; 22,42</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>7,11; 13,22</t>
+          <t>6,66; 15,01</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>12,41; 21,02</t>
+          <t>0,98; 3,57</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>3,83; 8,61</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>7,89; 13,14</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>5,28; 9,67</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>5,31; 11,06</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>9,2; 16,28</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>8,85; 15,73</t>
         </is>
       </c>
     </row>
@@ -1530,77 +1879,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>5,06%</t>
+          <t>2,94%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>3,2%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>9,77%</t>
+          <t>6,91%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>5,29%</t>
+          <t>4,91%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>5,09%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>8,01%</t>
+          <t>5,42%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>9,08%</t>
+          <t>8,69%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>5,66%</t>
+          <t>4,54%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>14,41%</t>
+          <t>8,71%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>11,65%</t>
+          <t>4,99%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>6,73%</t>
+          <t>10,66%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>6,64%</t>
+          <t>13,94%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>7,4%</t>
+          <t>10,52%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>10,6%</t>
+          <t>8,45%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>9,28%</t>
+          <t>3,86%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>6,33%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>5,82%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>8,16%</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>10,09%</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>8,34%</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>8,55%</t>
         </is>
       </c>
     </row>
@@ -1613,77 +1992,107 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,06; 9,34</t>
+          <t>1,3; 5,96</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,13; 6,99</t>
+          <t>1,19; 7,26</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,06; 23,47</t>
+          <t>2,54; 16,04</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,45; 9,42</t>
+          <t>2,29; 8,46</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,03; 11,31</t>
+          <t>1,86; 10,46</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>4,53; 12,93</t>
+          <t>2,35; 10,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>5,42; 13,62</t>
+          <t>3,82; 15,3</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3,12; 9,22</t>
+          <t>2,5; 7,17</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>6,93; 33,7</t>
+          <t>5,52; 13,39</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>6,05; 18,7</t>
+          <t>2,65; 8,34</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>4,36; 9,85</t>
+          <t>6,37; 21,22</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>4,41; 9,96</t>
+          <t>8,65; 21,25</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>4,27; 13,32</t>
+          <t>5,41; 17,87</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>6,26; 22,8</t>
+          <t>4,5; 13,65</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>5,4; 14,26</t>
+          <t>2,45; 5,66</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>4,01; 9,37</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>3,42; 10,56</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>5,6; 14,05</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>6,33; 14,12</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>5,06; 13,18</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>5,46; 13,1</t>
         </is>
       </c>
     </row>
@@ -1700,77 +2109,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>7,09%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>5,71%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>10,48%</t>
+          <t>3,96%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>13,3%</t>
+          <t>5,82%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>11,28%</t>
+          <t>5,78%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>10,32%</t>
+          <t>5,15%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>11,52%</t>
+          <t>7,14%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>16,05%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>18,12%</t>
+          <t>6,37%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>19,52%</t>
+          <t>8,53%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>8,88%</t>
+          <t>9,88%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>9,01%</t>
+          <t>10,0%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>13,74%</t>
+          <t>11,57%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>16,07%</t>
+          <t>9,67%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>15,94%</t>
+          <t>2,6%</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>4,54%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>6,29%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>7,9%</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>7,94%</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>8,36%</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>8,41%</t>
         </is>
       </c>
     </row>
@@ -1783,94 +2222,2774 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,53; 13,08</t>
+          <t>1,26; 3,65</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,92; 7,92</t>
+          <t>1,86; 3,71</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,72; 15,92</t>
+          <t>2,93; 5,61</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>10,6; 16,44</t>
+          <t>4,63; 7,32</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>8,57; 14,86</t>
+          <t>3,79; 11,84</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>7,75; 13,19</t>
+          <t>3,93; 6,78</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>9,23; 14,11</t>
+          <t>5,44; 8,86</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>13,61; 18,67</t>
+          <t>2,5; 4,29</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>15,31; 24,06</t>
+          <t>5,15; 7,93</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>16,61; 23,17</t>
+          <t>7,34; 9,86</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>7,23; 11,87</t>
+          <t>8,47; 12,01</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>7,45; 10,8</t>
+          <t>8,12; 12,1</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>11,75; 15,89</t>
+          <t>9,77; 13,88</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>14,15; 19,63</t>
+          <t>7,95; 11,57</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>13,84; 18,33</t>
+          <t>2,02; 3,38</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>3,78; 5,4</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>5,47; 7,38</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>6,86; 9,15</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>6,73; 10,68</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>7,23; 9,94</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>7,19; 9,7</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="Q1:W1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:I1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha aumentado el consumo de medicación respecto al último mes (tasa de respuesta: 99,91%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>5599</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>9780</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>8548</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>18632</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>9089</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>792</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>1358</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>8271</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>14787</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>29388</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>34225</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>30714</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>4218</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>13870</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>24567</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>37936</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>52857</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>39802</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>5010</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>3377</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 17532</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2857; 26330</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2542; 23467</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>5009; 44036</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 36490</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2702</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>385; 3825</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 29609</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>3183; 37026</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>14456; 53277</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>17975; 59013</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>16113; 56696</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>2250; 7069</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>878; 3977</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>5221; 36540</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>9659; 47894</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>21490; 66448</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>32121; 83747</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>22138; 66354</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>2623; 8401</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>1806; 6369</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>2974</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>6619</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>11835</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>36720</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>60837</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>978</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1792</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>12269</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>20287</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>29931</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>42142</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>26852</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>3657</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>4740</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>15243</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>26906</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>41766</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>78862</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>87689</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>4635</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>6531</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 15528</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 23142</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>2972; 27055</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>19991; 63824</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>4335; 210372</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 3156</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>491; 4287</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>4655; 27574</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>8517; 43108</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>17554; 49834</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>25956; 64033</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>13562; 47297</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>2058; 5936</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>2704; 7484</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>5475; 31510</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>11519; 54653</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>25566; 63509</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>54731; 107938</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>28827; 238321</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>2796; 7679</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>3884; 9870</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>11538</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>30992</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>15473</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>34581</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>29826</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>3750</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>3578</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>20214</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>40037</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>60558</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>79834</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>62795</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>5180</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>5984</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>31752</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>71028</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>76031</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>114415</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>92621</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>8929</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>9561</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>4331; 25991</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>17199; 52098</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>6694; 31320</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>20772; 55794</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>15694; 53084</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2026; 6378</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1970; 6421</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>10795; 35219</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>23534; 60328</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>41377; 82740</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>60081; 102492</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>43991; 87022</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>3440; 7300</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>4009; 8674</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>18234; 51658</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>48702; 99994</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>54907; 101440</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>87965; 145571</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>67814; 125333</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>6319; 12168</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>6613; 13144</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>27048</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>6797</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>29463</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>60691</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>41273</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>4127</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>4287</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>26084</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>51396</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>84332</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>78172</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>86776</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>7112</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>6433</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>53133</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>58192</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>113795</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>138863</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>128049</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>11239</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>10720</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>10210; 82965</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1995; 17898</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>16433; 47376</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>41050; 88641</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>25559; 63745</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>2370; 6659</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>2629; 6875</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>13933; 42394</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>32890; 74952</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>64102; 110534</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>59086; 101035</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>64085; 116955</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>5052; 9713</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>4263; 8760</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>30183; 101787</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>38169; 84850</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>86016; 143716</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>109819; 171400</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>99279; 166061</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>8705; 15366</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>8208; 14459</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>1855</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>18961</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>34458</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>23743</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>28781</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>3320</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>6466</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>18258</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>40330</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>69135</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>48391</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>51124</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>8145</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>4691</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>20113</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>59292</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>103594</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>72134</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>79905</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>11465</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>11157</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 9414</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>8803; 36351</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>20566; 52108</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>13601; 38466</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>15765; 51463</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1807; 5773</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>4545; 9507</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>8559; 32781</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>25102; 60947</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>50260; 91516</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>32904; 68040</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>30689; 80363</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>5973; 10933</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>3121; 7031</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>9987; 36190</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>38497; 86440</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>79424; 132315</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>53057; 97186</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>53279; 111005</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
+          <t>8581; 15184</t>
+        </is>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
+        <is>
+          <t>8112; 14420</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="U19" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="V19" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="W19" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>16088</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>17462</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>36589</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>26123</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>28848</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>2539</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>3963</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>33211</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>62497</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>34403</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>73839</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>102382</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>6599</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>5383</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>49299</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>79959</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>70992</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>99963</t>
+        </is>
+      </c>
+      <c r="U20" s="2" t="inlineStr">
+        <is>
+          <t>131230</t>
+        </is>
+      </c>
+      <c r="V20" s="2" t="inlineStr">
+        <is>
+          <t>9137</t>
+        </is>
+      </c>
+      <c r="W20" s="2" t="inlineStr">
+        <is>
+          <t>9346</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>7093; 32579</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>6504; 39596</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>13431; 84884</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>12214; 45060</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>10552; 59245</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>1102; 4682</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>1743; 6979</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>18248; 52388</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>39647; 96072</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>18272; 57561</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>44107; 146991</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>63521; 156097</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>3393; 11209</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>2863; 8693</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>31276; 72384</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>50646; 118355</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>41655; 128742</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>68560; 172150</t>
+        </is>
+      </c>
+      <c r="U21" s="2" t="inlineStr">
+        <is>
+          <t>82324; 183639</t>
+        </is>
+      </c>
+      <c r="V21" s="2" t="inlineStr">
+        <is>
+          <t>5540; 14433</t>
+        </is>
+      </c>
+      <c r="W21" s="2" t="inlineStr">
+        <is>
+          <t>5970; 14311</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>150.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>170.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>204.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>255.0</t>
+        </is>
+      </c>
+      <c r="U22" s="2" t="inlineStr">
+        <is>
+          <t>174.0</t>
+        </is>
+      </c>
+      <c r="V22" s="2" t="inlineStr">
+        <is>
+          <t>178.0</t>
+        </is>
+      </c>
+      <c r="W22" s="2" t="inlineStr">
+        <is>
+          <t>177.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>65104</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>90611</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>136366</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>200490</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>198654</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>15506</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>21444</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>118307</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>229334</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>307747</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>356603</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>360642</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>34910</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>29249</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>183411</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>319945</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>444113</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>557093</t>
+        </is>
+      </c>
+      <c r="U23" s="2" t="inlineStr">
+        <is>
+          <t>559297</t>
+        </is>
+      </c>
+      <c r="V23" s="2" t="inlineStr">
+        <is>
+          <t>50416</t>
+        </is>
+      </c>
+      <c r="W23" s="2" t="inlineStr">
+        <is>
+          <t>50693</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>43372; 125900</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>64107; 127646</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>101026; 193359</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>159615; 252206</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>130292; 406966</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>11836; 20435</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>16345; 26604</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>90179; 154987</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>185701; 285856</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>264869; 355776</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>305748; 433357</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>292859; 436407</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>29465; 41887</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>24054; 35008</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>142999; 238838</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>266538; 380245</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>386130; 520559</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>483773; 645368</t>
+        </is>
+      </c>
+      <c r="U24" s="2" t="inlineStr">
+        <is>
+          <t>474264; 752412</t>
+        </is>
+      </c>
+      <c r="V24" s="2" t="inlineStr">
+        <is>
+          <t>43567; 59911</t>
+        </is>
+      </c>
+      <c r="W24" s="2" t="inlineStr">
+        <is>
+          <t>43373; 58483</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>